--- a/core/src/main/resources/lab1.xlsx
+++ b/core/src/main/resources/lab1.xlsx
@@ -4,13 +4,25 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>p=</t>
+  </si>
+  <si>
+    <t>q=</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -347,34 +359,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>2</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>8</v>
+      </c>
+      <c r="B1">
+        <v>-1</v>
+      </c>
       <c r="C1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>-5</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>-4</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>-4</v>
+      </c>
+      <c r="B4">
+        <v>-2</v>
+      </c>
+      <c r="C4">
+        <v>-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>0.625</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.375</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.8125</v>
+      </c>
+      <c r="D6">
+        <v>0.1875</v>
       </c>
     </row>
   </sheetData>
